--- a/asset/data_testing1.xlsx
+++ b/asset/data_testing1.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="196">
   <si>
     <t>NAMA</t>
   </si>
@@ -659,12 +659,6 @@
   </si>
   <si>
     <t>SEPTI</t>
-  </si>
-  <si>
-    <t>EFI</t>
-  </si>
-  <si>
-    <t>ANAS</t>
   </si>
 </sst>
 </file>
@@ -897,7 +891,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6C4FF36-8148-0784-02D0-C24DAB88A520}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6C4FF36-8148-0784-02D0-C24DAB88A520}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1235,7 +1229,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12541,7 +12535,7 @@
   <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12655,60 +12649,14 @@
         <v>3.5</v>
       </c>
       <c r="H4" s="34">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2020804142</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>110</v>
-      </c>
+      <c r="B5"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2020804137</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>110</v>
-      </c>
+      <c r="B6"/>
     </row>
     <row r="7" spans="1:8">
       <c r="B7"/>

--- a/asset/data_testing1.xlsx
+++ b/asset/data_testing1.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="192">
   <si>
     <t>NAMA</t>
   </si>
@@ -628,37 +628,25 @@
     <t>2.4 IPS2 KURANG THEN TERLAMBAT</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>npm</t>
-  </si>
-  <si>
-    <t>nama</t>
-  </si>
-  <si>
-    <t>jk</t>
-  </si>
-  <si>
-    <t>ips1</t>
-  </si>
-  <si>
-    <t>ips2</t>
-  </si>
-  <si>
-    <t>ips3</t>
-  </si>
-  <si>
-    <t>ips4</t>
-  </si>
-  <si>
     <t>REZHA</t>
   </si>
   <si>
-    <t>VIKRI</t>
-  </si>
-  <si>
-    <t>SEPTI</t>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>JAKA</t>
+  </si>
+  <si>
+    <t>JOKO</t>
+  </si>
+  <si>
+    <t>JAMOL</t>
+  </si>
+  <si>
+    <t>SASA</t>
+  </si>
+  <si>
+    <t>SOLI</t>
   </si>
 </sst>
 </file>
@@ -671,7 +659,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;???_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;???_);_(@_)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -748,6 +736,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -770,12 +766,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -798,12 +793,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -844,19 +855,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -891,7 +900,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6C4FF36-8148-0784-02D0-C24DAB88A520}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6C4FF36-8148-0784-02D0-C24DAB88A520}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1229,7 +1238,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12532,160 +12541,296 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
     <col min="4" max="4" width="15.625" customWidth="1"/>
     <col min="5" max="5" width="16.375" customWidth="1"/>
     <col min="6" max="6" width="20.125" customWidth="1"/>
     <col min="7" max="7" width="19.125" customWidth="1"/>
+    <col min="8" max="8" width="15.25" customWidth="1"/>
+    <col min="9" max="9" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:9" ht="15">
+      <c r="A1" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32">
+        <v>2020804139</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="C1" s="32" t="s">
+      <c r="D2" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="32">
+        <v>2020804179</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D3" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="32">
+        <v>2020434179</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32">
+        <v>2020434179</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15">
+      <c r="A6" s="32">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32">
+        <v>2020804139</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15">
+      <c r="A7" s="32">
+        <v>6</v>
+      </c>
+      <c r="B7" s="32">
+        <v>2020804179</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15">
+      <c r="A8" s="32">
+        <v>7</v>
+      </c>
+      <c r="B8" s="32">
+        <v>2020434179</v>
+      </c>
+      <c r="C8" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="D8" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15">
+      <c r="A9" s="32">
+        <v>8</v>
+      </c>
+      <c r="B9" s="32">
+        <v>2020434179</v>
+      </c>
+      <c r="C9" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="F1" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2020804139</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D2" s="34" t="s">
+      <c r="D9" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="34">
-        <v>3.7</v>
-      </c>
-      <c r="F2" s="34">
-        <v>3.2</v>
-      </c>
-      <c r="G2" s="34">
-        <v>2.8</v>
-      </c>
-      <c r="H2" s="34">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2020804149</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="34">
-        <v>2.1</v>
-      </c>
-      <c r="F3" s="34">
-        <v>2.5</v>
-      </c>
-      <c r="G3" s="34">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H3" s="34">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2020804134</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="34">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F4" s="34">
-        <v>3.6</v>
-      </c>
-      <c r="G4" s="34">
-        <v>3.5</v>
-      </c>
-      <c r="H4" s="34">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="B7"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="E9" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10"/>
     </row>
-    <row r="11" spans="1:8">
-      <c r="B11"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13"/>
-    </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="B16"/>
     </row>
     <row r="17" spans="2:2">
@@ -12720,6 +12865,48 @@
     </row>
     <row r="27" spans="2:2">
       <c r="B27"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41"/>
     </row>
     <row r="46" spans="2:2" ht="15.75">
       <c r="B46" s="29"/>

--- a/asset/data_testing1.xlsx
+++ b/asset/data_testing1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data Training" sheetId="1" r:id="rId1"/>
@@ -653,8 +653,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;???_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;???_);_(@_)"/>
@@ -814,7 +815,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -861,6 +862,7 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -900,7 +902,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6C4FF36-8148-0784-02D0-C24DAB88A520}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6C4FF36-8148-0784-02D0-C24DAB88A520}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1238,7 +1240,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1248,7 +1250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O123"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
@@ -4455,8 +4457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N408"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4503,20 +4505,17 @@
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16">
-        <f>COUNTA('Data Training'!$C$5:$C$123)</f>
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="D5" s="16">
-        <f>COUNTIF('Data Training'!$H$5:$H$123,D4)</f>
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="E5" s="16">
-        <f>COUNTIF('Data Training'!$H$5:H$123,E4)</f>
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F5" s="17">
         <f>((-D5/C5)*IMLOG2(D5/C5))+((-E5/C5)*IMLOG2(E5/C5))</f>
-        <v>0.98153207417828081</v>
+        <v>0.98145389503365177</v>
       </c>
       <c r="G5" s="16"/>
     </row>
@@ -4529,9 +4528,9 @@
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="17"/>
-      <c r="G6" s="18">
+      <c r="G6" s="34">
         <f>($F$5)-((C7/$C$5)*F7+((C8/$C$5)*F8))</f>
-        <v>4.676176657329123E-2</v>
+        <v>3.9212902400080241E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75">
@@ -4540,20 +4539,17 @@
         <v>120</v>
       </c>
       <c r="C7" s="16">
-        <f>COUNTIF('Data Training'!$C$5:$C$123,B7)</f>
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="D7" s="16">
-        <f>COUNTIFS('Data Training'!$C$5:$C$123,B7,'Data Training'!$H$5:$H$123,$D$4)</f>
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E7" s="16">
-        <f>COUNTIFS('Data Training'!$C$5:$C$123,B7,'Data Training'!$H$5:$H$123,$E$4)</f>
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F7" s="17">
         <f>((-D7/C7)*IMLOG2(D7/C7))+((-E7/C7)*IMLOG2(E7/C7))</f>
-        <v>0.99950039418176084</v>
+        <v>0.99947302018598527</v>
       </c>
       <c r="G7" s="16"/>
     </row>
@@ -4563,20 +4559,17 @@
         <v>121</v>
       </c>
       <c r="C8" s="16">
-        <f>COUNTIF('Data Training'!$C$5:$C$123,B8)</f>
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D8" s="16">
-        <f>COUNTIFS('Data Training'!$C$5:$C$123,B8,'Data Training'!$H$5:$H$123,$D$4)</f>
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E8" s="16">
-        <f>COUNTIFS('Data Training'!$C$5:$C$123,B8,'Data Training'!$H$5:$H$123,$E$4)</f>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F8" s="17">
         <f>((-D8/C8)*IMLOG2(D8/C8))+((-E8/C8)*IMLOG2(E8/C8))</f>
-        <v>0.82036364295767294</v>
+        <v>0.77934983729208618</v>
       </c>
       <c r="G8" s="16"/>
     </row>
@@ -4589,9 +4582,9 @@
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="17"/>
-      <c r="G9" s="18">
+      <c r="G9" s="34">
         <f>($F$5)-((C10/$C$5)*F10+((C11/$C$5)*F11)+((C12/$C$5)*F12)+((C13/$C$5)*F13))</f>
-        <v>0.1475153259264248</v>
+        <v>0.13185681115757031</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75">
@@ -4600,20 +4593,17 @@
         <v>112</v>
       </c>
       <c r="C10" s="16">
-        <f>COUNTIF('Data Training'!$D$5:$D$123,B10)</f>
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D10" s="16">
-        <f>COUNTIFS('Data Training'!$D$5:$D$123,B10,'Data Training'!$H$5:$H$123,$D$4)</f>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E10" s="16">
-        <f>COUNTIFS('Data Training'!$D$5:$D$123,B10,'Data Training'!$H$5:$H$123,$E$4)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F10" s="17">
         <f t="shared" ref="F10:F13" si="0">((-D10/C10)*IMLOG2(D10/C10))+((-E10/C10)*IMLOG2(E10/C10))</f>
-        <v>0.81127812445913294</v>
+        <v>0.54356444319959651</v>
       </c>
       <c r="G10" s="16"/>
     </row>
@@ -4623,20 +4613,17 @@
         <v>110</v>
       </c>
       <c r="C11" s="16">
-        <f>COUNTIF('Data Training'!$D$5:$D$123,B11)</f>
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D11" s="16">
-        <f>COUNTIFS('Data Training'!$D$5:$D$123,B11,'Data Training'!$H$5:$H$123,$D$4)</f>
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E11" s="16">
-        <f>COUNTIFS('Data Training'!$D$5:$D$123,B11,'Data Training'!$H$5:$H$123,$E$4)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" s="17">
         <f t="shared" si="0"/>
-        <v>0.78244412940669039</v>
+        <v>0.94268318925549166</v>
       </c>
       <c r="G11" s="16"/>
     </row>
@@ -4646,20 +4633,17 @@
         <v>109</v>
       </c>
       <c r="C12" s="16">
-        <f>COUNTIF('Data Training'!$D$5:$D$123,B12)</f>
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D12" s="16">
-        <f>COUNTIFS('Data Training'!$D$5:$D$123,B12,'Data Training'!$H$5:$H$123,$D$4)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E12" s="16">
-        <f>COUNTIFS('Data Training'!$D$5:$D$123,B12,'Data Training'!$H$5:$H$123,$E$4)</f>
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F12" s="17">
         <f t="shared" si="0"/>
-        <v>0.88129089923069359</v>
+        <v>0.97095059445466747</v>
       </c>
       <c r="G12" s="16"/>
     </row>
@@ -4669,20 +4653,16 @@
         <v>113</v>
       </c>
       <c r="C13" s="16">
-        <f>COUNTIF('Data Training'!$D$5:$D$123,B13)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D13" s="16">
-        <f>COUNTIFS('Data Training'!$D$5:$D$123,B13,'Data Training'!$H$5:$H$123,$D$4)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E13" s="16">
-        <f>COUNTIFS('Data Training'!$D$5:$D$123,B13,'Data Training'!$H$5:$H$123,$E$4)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F13" s="17">
-        <f t="shared" si="0"/>
-        <v>0.95443400292496372</v>
+        <v>0</v>
       </c>
       <c r="G13" s="16"/>
     </row>
@@ -4697,7 +4677,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="19">
         <f>($F$5)-((C15/$C$5)*F15+((C16/$C$5)*F16)+((C17/$C$5)*F17)+((C18/$C$5)*F18))</f>
-        <v>0.18902513559761047</v>
+        <v>0.23133080156504071</v>
       </c>
       <c r="H14" t="s">
         <v>139</v>
@@ -4709,20 +4689,17 @@
         <v>112</v>
       </c>
       <c r="C15" s="16">
-        <f>COUNTIF('Data Training'!$E$5:$E$123,B15)</f>
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D15" s="16">
-        <f>COUNTIFS('Data Training'!$E$5:$E$123,B15,'Data Training'!$H$5:$H$123,$D$4)</f>
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E15" s="16">
-        <f>COUNTIFS('Data Training'!$E$5:$E$123,B15,'Data Training'!$H$5:$H$123,$E$4)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F15" s="17">
         <f>((-D15/C15)*IMLOG2(D15/C15))+((-E15/C15)*IMLOG2(E15/C15))</f>
-        <v>0.62924922385603499</v>
+        <v>0.54356444319959651</v>
       </c>
       <c r="G15" s="16"/>
     </row>
@@ -4732,20 +4709,17 @@
         <v>110</v>
       </c>
       <c r="C16" s="16">
-        <f>COUNTIF('Data Training'!$E$5:$E$123,B16)</f>
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D16" s="16">
-        <f>COUNTIFS('Data Training'!$E$5:$E$123,B16,'Data Training'!$H$5:$H$123,$D$4)</f>
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E16" s="16">
-        <f>COUNTIFS('Data Training'!$E$5:$E$123,B16,'Data Training'!$H$5:$H$123,$E$4)</f>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F16" s="17">
         <f t="shared" ref="F16:F17" si="1">((-D16/C16)*IMLOG2(D16/C16))+((-E16/C16)*IMLOG2(E16/C16))</f>
-        <v>0.97095059445466747</v>
+        <v>0.94945201538794777</v>
       </c>
       <c r="G16" s="16"/>
     </row>
@@ -4755,20 +4729,17 @@
         <v>109</v>
       </c>
       <c r="C17" s="16">
-        <f>COUNTIF('Data Training'!$E$5:$E$123,B17)</f>
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D17" s="16">
-        <f>COUNTIFS('Data Training'!$E$5:$E$123,B17,'Data Training'!$H$5:$H$123,$D$4)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E17" s="16">
-        <f>COUNTIFS('Data Training'!$E$5:$E$123,B17,'Data Training'!$H$5:$H$123,$E$4)</f>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F17" s="17">
         <f t="shared" si="1"/>
-        <v>0.84035867160911781</v>
+        <v>0.68403843563904232</v>
       </c>
       <c r="G17" s="16"/>
     </row>
@@ -4778,19 +4749,17 @@
         <v>113</v>
       </c>
       <c r="C18" s="16">
-        <f>COUNTIF('Data Training'!$E$5:$E$123,B18)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="16">
-        <f>COUNTIFS('Data Training'!$E$5:$E$123,B18,'Data Training'!$H$5:$H$123,$D$4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="16">
-        <f>COUNTIFS('Data Training'!$E$5:$E$123,B18,'Data Training'!$H$5:$H$123,$E$4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F18" s="17">
-        <v>0</v>
+        <f>((-D18/C18)*IMLOG2(D18/C18))+((-E18/C18)*IMLOG2(E18/C18))</f>
+        <v>0.81127812445913294</v>
       </c>
       <c r="G18" s="16"/>
     </row>
@@ -4805,7 +4774,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="18">
         <f>($F$5)-((C20/$C$5)*F20+((C21/$C$5)*F21)+((C22/$C$5)*F22)+((C23/$C$5)*F23))</f>
-        <v>0.10066291587101117</v>
+        <v>-1.1150147017376502</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75">
@@ -4911,7 +4880,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="18">
         <f>($F$5)-((C25/$C$5)*F25+((C26/$C$5)*F26)+((C27/$C$5)*F27)+((C28/$C$5)*F28))</f>
-        <v>1.0317316899375206E-2</v>
+        <v>-1.3300372272901431</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75">
@@ -12543,7 +12512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
